--- a/Tpconcurrente/TpConcurrente Datos.xlsx
+++ b/Tpconcurrente/TpConcurrente Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fede\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fede\Desktop\Fede\Facultad\TpConcu\Tpconcurrente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E4F2CF-6EB1-4036-AC29-4E72D365482A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA6277-7DEF-4AFC-903A-CA2A4BA63126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19695" windowHeight="11760" xr2:uid="{78E82352-2DF9-4149-BEA6-4816F892011D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19740" windowHeight="11760" xr2:uid="{78E82352-2DF9-4149-BEA6-4816F892011D}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="22">
   <si>
     <t>Tiempos (MS)</t>
   </si>
@@ -225,9 +225,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -242,20 +239,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,22 +454,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>230</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>265</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243</c:v>
+                  <c:v>764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>267</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>243</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>249.6</c:v>
+                  <c:v>719.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,6 +477,409 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EFA9-41F5-97CB-5D84E09B2ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="537594104"/>
+        <c:axId val="537592792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="537594104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537592792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="537592792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537594104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>LGG</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> vs LHOH</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Datos!$AC$28:$AC$29</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Tiempos (MS)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LGG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Datos!$AC$30:$AC$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9763-4C48-AA4D-4177D7F940B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Datos!$AD$28:$AD$29</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Tiempos (MS)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LHOH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Datos!$AD$30:$AD$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2203.8000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9763-4C48-AA4D-4177D7F940B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -857,22 +1260,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>230</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>265</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243</c:v>
+                  <c:v>835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>267</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>243</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>249.6</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,8 +1662,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4148</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5161.6000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,8 +2065,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20943</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20630.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,8 +2468,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>812</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>837.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,8 +2871,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>795</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>797.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2811,6 +3274,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>298.39999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3196,8 +3677,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>578</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>578.20000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3584,8 +4080,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1046</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1259.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3799,6 +4310,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4661,6 +5212,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9027,6 +10081,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500E277A-2A1A-4B53-981C-1AFA1AAEE069}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9327,10 +10419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CD1BCF-9219-4E33-AD6A-DBC5DC5C7A28}">
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G71" workbookViewId="0">
-      <selection activeCell="U88" sqref="U88"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9355,13 +10447,19 @@
     <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" customWidth="1"/>
+    <col min="30" max="30" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2"/>
@@ -9370,858 +10468,1012 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
       <c r="O5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="11"/>
+      <c r="P5" s="12"/>
       <c r="R5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="12"/>
       <c r="V5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="11"/>
+      <c r="W5" s="12"/>
     </row>
     <row r="6" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="14"/>
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>20</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>80</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>100</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f>(D7*F7+E7*F7)</f>
         <v>10000</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>151</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="8">
+      <c r="I7" s="7">
+        <v>335</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7">
         <v>50</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>50</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>100</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f>(K7*M7+L7*M7)</f>
         <v>10000</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>160</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="R7" s="8">
+      <c r="P7" s="7">
+        <v>373</v>
+      </c>
+      <c r="R7" s="7">
         <v>80</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="7">
         <v>20</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <v>100</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <f>(R7*T7+S7*T7)</f>
         <v>10000</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
         <v>140</v>
       </c>
-      <c r="W7" s="8"/>
+      <c r="W7" s="7">
+        <v>980</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
+      <c r="B8" s="14"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7">
         <v>144</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8">
+      <c r="I8" s="7">
+        <v>227</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
         <v>142</v>
       </c>
-      <c r="P8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8">
+      <c r="P8" s="7">
+        <v>551</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7">
         <v>250</v>
       </c>
-      <c r="W8" s="8"/>
+      <c r="W8" s="7">
+        <v>1479</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
+      <c r="B9" s="14"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
         <v>157</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8">
+      <c r="I9" s="7">
+        <v>363</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
         <v>148</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8">
+      <c r="P9" s="7">
+        <v>341</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7">
         <v>232</v>
       </c>
-      <c r="W9" s="8"/>
+      <c r="W9" s="7">
+        <v>1898</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
         <v>170</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8">
+      <c r="I10" s="7">
+        <v>279</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
         <v>190</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8">
+      <c r="P10" s="7">
+        <v>1048</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7">
         <v>172</v>
       </c>
-      <c r="W10" s="8"/>
+      <c r="W10" s="7">
+        <v>896</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
         <v>168</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8">
+      <c r="I11" s="7">
+        <v>288</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
         <v>172</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8">
+      <c r="P11" s="7">
+        <v>578</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7">
         <v>192</v>
       </c>
-      <c r="W11" s="8"/>
+      <c r="W11" s="7">
+        <v>1046</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="D12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="9">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="8">
         <f>AVERAGE(H7:H11)</f>
         <v>158</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="6"/>
+      <c r="I12" s="8">
+        <f>AVERAGE(I7:I11)</f>
+        <v>298.39999999999998</v>
+      </c>
+      <c r="J12" s="5"/>
       <c r="K12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="9">
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="8">
         <f>AVERAGE(O7:O11)</f>
         <v>162.4</v>
       </c>
-      <c r="P12" s="9" t="e">
+      <c r="P12" s="8">
         <f>AVERAGE(P7:P11)</f>
-        <v>#DIV/0!</v>
+        <v>578.20000000000005</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="9">
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="8">
         <f>AVERAGE(V7:V11)</f>
         <v>197.2</v>
       </c>
-      <c r="W12" s="9" t="e">
+      <c r="W12" s="8">
         <f>AVERAGE(W7:W11)</f>
-        <v>#DIV/0!</v>
+        <v>1259.8</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+    <row r="17" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+    <row r="18" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+    <row r="19" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+    <row r="20" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+    <row r="21" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+    <row r="22" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+    <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+    <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+    <row r="25" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+    <row r="26" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+    <row r="27" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="2"/>
       <c r="D28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="11"/>
+      <c r="I28" s="12"/>
       <c r="K28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="12"/>
       <c r="O28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="11"/>
+      <c r="P28" s="12"/>
       <c r="R28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="12"/>
       <c r="V28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="W28" s="11"/>
+      <c r="W28" s="12"/>
+      <c r="Y28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="12"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="S29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="7" t="s">
+      <c r="T29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="U29" s="7" t="s">
+      <c r="U29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="V29" s="7" t="s">
+      <c r="V29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="7" t="s">
+      <c r="W29" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="Y29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>20</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>20</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>500</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <f>(D30*F30+E30*F30)</f>
         <v>20000</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <v>322</v>
       </c>
-      <c r="I30" s="8">
-        <v>230</v>
-      </c>
-      <c r="K30" s="8">
+      <c r="I30" s="7">
+        <v>890</v>
+      </c>
+      <c r="K30" s="7">
         <v>40</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>40</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="7">
         <v>250</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <f>(K30*M30+L30*M30)</f>
         <v>20000</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="7">
         <v>271</v>
       </c>
-      <c r="P30" s="8"/>
-      <c r="R30" s="8">
+      <c r="P30" s="7">
+        <v>791</v>
+      </c>
+      <c r="R30" s="7">
         <v>100</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S30" s="7">
         <v>100</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T30" s="7">
         <v>100</v>
       </c>
-      <c r="U30" s="8">
+      <c r="U30" s="7">
         <f>(R30*T30+S30*T30)</f>
         <v>20000</v>
       </c>
-      <c r="V30" s="8">
+      <c r="V30" s="7">
         <v>229</v>
       </c>
-      <c r="W30" s="8"/>
+      <c r="W30" s="7">
+        <v>1019</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>10</v>
+      </c>
+      <c r="AB30" s="7">
+        <f>(Y30*AA30+Z30*AA30)</f>
+        <v>20000</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>1300</v>
+      </c>
+      <c r="AD30" s="7">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7">
         <v>329</v>
       </c>
-      <c r="I31" s="8">
-        <v>265</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8">
+      <c r="I31" s="7">
+        <v>721</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7">
         <v>207</v>
       </c>
-      <c r="P31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8">
+      <c r="P31" s="7">
+        <v>902</v>
+      </c>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7">
         <v>202</v>
       </c>
-      <c r="W31" s="8"/>
+      <c r="W31" s="7">
+        <v>716</v>
+      </c>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7">
+        <v>1281</v>
+      </c>
+      <c r="AD31" s="7">
+        <v>2127</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7">
         <v>354</v>
       </c>
-      <c r="I32" s="8">
-        <v>243</v>
-      </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8">
+      <c r="I32" s="7">
+        <v>835</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7">
         <v>274</v>
       </c>
-      <c r="P32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8">
+      <c r="P32" s="7">
+        <v>698</v>
+      </c>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7">
         <v>189</v>
       </c>
-      <c r="W32" s="8"/>
+      <c r="W32" s="7">
+        <v>733</v>
+      </c>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7">
+        <v>803</v>
+      </c>
+      <c r="AD32" s="7">
+        <v>2456</v>
+      </c>
     </row>
-    <row r="33" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7">
         <v>343</v>
       </c>
-      <c r="I33" s="8">
-        <v>267</v>
-      </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8">
+      <c r="I33" s="7">
+        <v>612</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7">
         <v>232</v>
       </c>
-      <c r="P33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8">
+      <c r="P33" s="7">
+        <v>803</v>
+      </c>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7">
         <v>192</v>
       </c>
-      <c r="W33" s="8"/>
+      <c r="W33" s="7">
+        <v>906</v>
+      </c>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7">
+        <v>982</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>2050</v>
+      </c>
     </row>
-    <row r="34" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7">
         <v>366</v>
       </c>
-      <c r="I34" s="8">
-        <v>243</v>
-      </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8">
+      <c r="I34" s="7">
+        <v>722</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7">
         <v>197</v>
       </c>
-      <c r="P34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8">
+      <c r="P34" s="7">
+        <v>795</v>
+      </c>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7">
         <v>225</v>
       </c>
-      <c r="W34" s="8"/>
+      <c r="W34" s="7">
+        <v>812</v>
+      </c>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7">
+        <v>944</v>
+      </c>
+      <c r="AD34" s="7">
+        <v>2386</v>
+      </c>
     </row>
-    <row r="35" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="9">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="8">
         <f>AVERAGE(H30:H34)</f>
         <v>342.8</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <f>AVERAGE(I30:I34)</f>
-        <v>249.6</v>
+        <v>756</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="9">
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="8">
         <f>AVERAGE(O30:O34)</f>
         <v>236.2</v>
       </c>
-      <c r="P35" s="9" t="e">
+      <c r="P35" s="8">
         <f>AVERAGE(P30:P34)</f>
-        <v>#DIV/0!</v>
+        <v>797.8</v>
       </c>
       <c r="R35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="9">
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="8">
         <f>AVERAGE(V30:V34)</f>
         <v>207.4</v>
       </c>
-      <c r="W35" s="9" t="e">
+      <c r="W35" s="8">
         <f>AVERAGE(W30:W34)</f>
-        <v>#DIV/0!</v>
+        <v>837.2</v>
+      </c>
+      <c r="Y35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="8">
+        <f>AVERAGE(AC30:AC34)</f>
+        <v>1062</v>
+      </c>
+      <c r="AD35" s="8">
+        <f>AVERAGE(AD30:AD34)</f>
+        <v>2203.8000000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -10230,7 +11482,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -10239,7 +11491,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -10248,7 +11500,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -10257,7 +11509,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -10266,7 +11518,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -10275,7 +11527,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -10284,7 +11536,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -10293,7 +11545,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -10302,7 +11554,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -10311,7 +11563,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -10320,7 +11572,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -10329,7 +11581,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -10358,315 +11610,335 @@
     </row>
     <row r="51" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="13"/>
       <c r="D52" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
       <c r="H52" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I52" s="11"/>
+      <c r="I52" s="12"/>
       <c r="K52" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="12"/>
       <c r="O52" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P52" s="11"/>
+      <c r="P52" s="12"/>
       <c r="R52" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="12"/>
       <c r="V52" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="W52" s="11"/>
+      <c r="W52" s="12"/>
     </row>
     <row r="53" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="D53" s="7" t="s">
+      <c r="B53" s="13"/>
+      <c r="D53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="K53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L53" s="7" t="s">
+      <c r="L53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="M53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N53" s="7" t="s">
+      <c r="N53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O53" s="7" t="s">
+      <c r="O53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="P53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R53" s="7" t="s">
+      <c r="R53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S53" s="7" t="s">
+      <c r="S53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T53" s="7" t="s">
+      <c r="T53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="U53" s="7" t="s">
+      <c r="U53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="V53" s="7" t="s">
+      <c r="V53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="W53" s="7" t="s">
+      <c r="W53" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>20</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="7">
         <v>20</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="7">
         <v>500</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="7">
         <f>(D54*F54+E54*F54)</f>
         <v>20000</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="7">
         <v>356</v>
       </c>
-      <c r="I54" s="8">
-        <v>230</v>
-      </c>
-      <c r="K54" s="8">
+      <c r="I54" s="7">
+        <v>878</v>
+      </c>
+      <c r="K54" s="7">
         <v>50</v>
       </c>
-      <c r="L54" s="8">
+      <c r="L54" s="7">
         <v>50</v>
       </c>
-      <c r="M54" s="8">
+      <c r="M54" s="7">
         <v>500</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N54" s="7">
         <f>(K54*M54+L54*M54)</f>
         <v>50000</v>
       </c>
-      <c r="O54" s="8">
+      <c r="O54" s="7">
         <v>432</v>
       </c>
-      <c r="P54" s="8"/>
-      <c r="R54" s="8">
+      <c r="P54" s="7">
+        <v>4947</v>
+      </c>
+      <c r="R54" s="7">
         <v>100</v>
       </c>
-      <c r="S54" s="8">
+      <c r="S54" s="7">
         <v>100</v>
       </c>
-      <c r="T54" s="8">
+      <c r="T54" s="7">
         <v>500</v>
       </c>
-      <c r="U54" s="8">
+      <c r="U54" s="7">
         <f>(R54*T54+S54*T54)</f>
         <v>100000</v>
       </c>
-      <c r="V54" s="8">
+      <c r="V54" s="7">
         <v>703</v>
       </c>
-      <c r="W54" s="8"/>
+      <c r="W54" s="7">
+        <v>17154</v>
+      </c>
     </row>
     <row r="55" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7">
         <v>341</v>
       </c>
-      <c r="I55" s="8">
-        <v>265</v>
-      </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8">
+      <c r="I55" s="7">
+        <v>660</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7">
         <v>470</v>
       </c>
-      <c r="P55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8">
+      <c r="P55" s="7">
+        <v>5905</v>
+      </c>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7">
         <v>601</v>
       </c>
-      <c r="W55" s="8"/>
+      <c r="W55" s="7">
+        <v>18342</v>
+      </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7">
         <v>370</v>
       </c>
-      <c r="I56" s="8">
-        <v>243</v>
-      </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8">
+      <c r="I56" s="7">
+        <v>764</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7">
         <v>509</v>
       </c>
-      <c r="P56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8">
+      <c r="P56" s="7">
+        <v>4905</v>
+      </c>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7">
         <v>664</v>
       </c>
-      <c r="W56" s="8"/>
+      <c r="W56" s="7">
+        <v>25356</v>
+      </c>
     </row>
     <row r="57" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7">
         <v>389</v>
       </c>
-      <c r="I57" s="8">
-        <v>267</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8">
+      <c r="I57" s="7">
+        <v>719</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7">
         <v>469</v>
       </c>
-      <c r="P57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8">
+      <c r="P57" s="7">
+        <v>5903</v>
+      </c>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7">
         <v>565</v>
       </c>
-      <c r="W57" s="8"/>
+      <c r="W57" s="7">
+        <v>21356</v>
+      </c>
     </row>
     <row r="58" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7">
         <v>342</v>
       </c>
-      <c r="I58" s="8">
-        <v>243</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8">
+      <c r="I58" s="7">
+        <v>577</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7">
         <v>539</v>
       </c>
-      <c r="P58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8">
+      <c r="P58" s="7">
+        <v>4148</v>
+      </c>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7">
         <v>626</v>
       </c>
-      <c r="W58" s="8"/>
+      <c r="W58" s="7">
+        <v>20943</v>
+      </c>
     </row>
     <row r="59" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D59" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="9">
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="8">
         <f>AVERAGE(H54:H58)</f>
         <v>359.6</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="8">
         <f>AVERAGE(I54:I58)</f>
-        <v>249.6</v>
+        <v>719.6</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="9">
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="8">
         <f>AVERAGE(O54:O58)</f>
         <v>483.8</v>
       </c>
-      <c r="P59" s="9" t="e">
+      <c r="P59" s="8">
         <f>AVERAGE(P54:P58)</f>
-        <v>#DIV/0!</v>
+        <v>5161.6000000000004</v>
       </c>
       <c r="R59" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="9">
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="8">
         <f>AVERAGE(V54:V58)</f>
         <v>631.79999999999995</v>
       </c>
-      <c r="W59" s="9" t="e">
+      <c r="W59" s="8">
         <f>AVERAGE(W54:W58)</f>
-        <v>#DIV/0!</v>
+        <v>20630.2</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -10711,44 +11983,47 @@
       <c r="I64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="40">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="R35:U35"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="R52:U52"/>
     <mergeCell ref="V52:W52"/>
     <mergeCell ref="D59:G59"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="R59:U59"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:N52"/>
     <mergeCell ref="O52:P52"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="R35:U35"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
